--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2090102.193978568</v>
+        <v>-2091961.249260928</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4728206.377206859</v>
+        <v>4728206.377206862</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>318.4716714268617</v>
+        <v>93.97299533580883</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>301.0107215343887</v>
       </c>
       <c r="D11" t="n">
-        <v>244.3479708881082</v>
+        <v>290.4208713840642</v>
       </c>
       <c r="E11" t="n">
         <v>317.668199835643</v>
       </c>
       <c r="F11" t="n">
-        <v>342.6138755050926</v>
+        <v>342.6138755050927</v>
       </c>
       <c r="G11" t="n">
         <v>348.3052690752429</v>
       </c>
       <c r="H11" t="n">
-        <v>247.1997591548757</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>40.76113535209352</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>186.8646588149558</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>263.4900882335161</v>
       </c>
       <c r="W11" t="n">
-        <v>284.9787984807942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>305.4689304418502</v>
+        <v>305.4689304418503</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.5698099453185</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>102.984650862009</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>84.35330278159354</v>
+        <v>84.35330278159356</v>
       </c>
       <c r="E13" t="n">
-        <v>82.17179240995036</v>
+        <v>82.17179240995037</v>
       </c>
       <c r="F13" t="n">
-        <v>81.15887778631243</v>
+        <v>81.15887778631244</v>
       </c>
       <c r="G13" t="n">
         <v>102.5018485138553</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>87.05620704710245</v>
       </c>
       <c r="I13" t="n">
-        <v>54.29025295233657</v>
+        <v>54.29025295233659</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.86261053062141</v>
       </c>
       <c r="S13" t="n">
-        <v>87.27769501537708</v>
+        <v>134.4853503101897</v>
       </c>
       <c r="T13" t="n">
         <v>158.4409511393645</v>
@@ -1585,13 +1585,13 @@
         <v>221.9899339958002</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>187.8754730872092</v>
       </c>
       <c r="W13" t="n">
         <v>222.2608280999722</v>
       </c>
       <c r="X13" t="n">
-        <v>161.4474851524183</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>154.322483115476</v>
@@ -1607,25 +1607,25 @@
         <v>318.4716714268617</v>
       </c>
       <c r="C14" t="n">
-        <v>60.49108950678455</v>
+        <v>301.0107215343887</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>290.4208713840641</v>
       </c>
       <c r="E14" t="n">
-        <v>317.6681998356429</v>
+        <v>317.668199835643</v>
       </c>
       <c r="F14" t="n">
         <v>342.6138755050926</v>
       </c>
       <c r="G14" t="n">
-        <v>348.3052690752428</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.1997591548757</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.76113535209346</v>
+        <v>40.76113535209352</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.42729154253635</v>
+        <v>82.42729154253638</v>
       </c>
       <c r="T14" t="n">
         <v>146.8599114426837</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>186.8646588149558</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>305.4689304418501</v>
+        <v>183.1687964453448</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.9757684194347</v>
+        <v>321.9757684194348</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.5698099453184</v>
+        <v>115.5698099453185</v>
       </c>
       <c r="C16" t="n">
-        <v>102.984650862009</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>84.35330278159348</v>
+        <v>84.35330278159353</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102.5018485138553</v>
       </c>
       <c r="H16" t="n">
-        <v>81.15314293123943</v>
+        <v>87.05620704710242</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.29025295233656</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.86261053062138</v>
       </c>
       <c r="S16" t="n">
         <v>138.3718506593841</v>
       </c>
       <c r="T16" t="n">
-        <v>158.4409511393644</v>
+        <v>158.4409511393645</v>
       </c>
       <c r="U16" t="n">
-        <v>221.9899339958001</v>
+        <v>104.416808745132</v>
       </c>
       <c r="V16" t="n">
-        <v>187.8754730872091</v>
+        <v>187.8754730872092</v>
       </c>
       <c r="W16" t="n">
-        <v>222.2608280999721</v>
+        <v>222.2608280999722</v>
       </c>
       <c r="X16" t="n">
         <v>161.4474851524183</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.3224831154759</v>
+        <v>154.322483115476</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>238.1073382465104</v>
+        <v>238.1073382465103</v>
       </c>
       <c r="C17" t="n">
         <v>220.6463883540373</v>
@@ -1850,13 +1850,13 @@
         <v>210.0565382037127</v>
       </c>
       <c r="E17" t="n">
-        <v>237.3038666552916</v>
+        <v>237.3038666552915</v>
       </c>
       <c r="F17" t="n">
         <v>262.2495423247412</v>
       </c>
       <c r="G17" t="n">
-        <v>267.9409358948915</v>
+        <v>167.5286868309696</v>
       </c>
       <c r="H17" t="n">
         <v>166.8354259745243</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.062958362184993</v>
+        <v>2.062958362184965</v>
       </c>
       <c r="T17" t="n">
-        <v>66.49557826233232</v>
+        <v>66.49557826233227</v>
       </c>
       <c r="U17" t="n">
-        <v>6.088076570683001</v>
+        <v>106.5003256346044</v>
       </c>
       <c r="V17" t="n">
         <v>183.1257550531647</v>
@@ -1910,7 +1910,7 @@
         <v>225.1045972614988</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.6114352390834</v>
+        <v>241.6114352390833</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.20547676496707</v>
+        <v>35.20547676496705</v>
       </c>
       <c r="C19" t="n">
-        <v>22.62031768165761</v>
+        <v>22.62031768165758</v>
       </c>
       <c r="D19" t="n">
-        <v>3.988969601242133</v>
+        <v>3.988969601242104</v>
       </c>
       <c r="E19" t="n">
-        <v>1.807459229598948</v>
+        <v>1.807459229598919</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7945446059610219</v>
+        <v>0.7945446059609935</v>
       </c>
       <c r="G19" t="n">
-        <v>22.13751533350386</v>
+        <v>22.13751533350383</v>
       </c>
       <c r="H19" t="n">
-        <v>73.4185894764933</v>
+        <v>6.69187386675099</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>58.00751747903269</v>
+        <v>202.6340208960029</v>
       </c>
       <c r="T19" t="n">
-        <v>78.07661795901311</v>
+        <v>222.7031213759833</v>
       </c>
       <c r="U19" t="n">
-        <v>286.252104232419</v>
+        <v>208.3523164251912</v>
       </c>
       <c r="V19" t="n">
-        <v>107.5111399068578</v>
+        <v>107.5111399068577</v>
       </c>
       <c r="W19" t="n">
-        <v>141.8964949196208</v>
+        <v>141.8964949196207</v>
       </c>
       <c r="X19" t="n">
-        <v>81.08315197206693</v>
+        <v>81.0831519720669</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>73.95814993512454</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>238.1073382465104</v>
+        <v>238.1073382465103</v>
       </c>
       <c r="C20" t="n">
         <v>220.6463883540373</v>
@@ -2087,16 +2087,16 @@
         <v>210.0565382037127</v>
       </c>
       <c r="E20" t="n">
-        <v>237.3038666552916</v>
+        <v>237.3038666552915</v>
       </c>
       <c r="F20" t="n">
-        <v>161.8372932608199</v>
+        <v>262.2495423247412</v>
       </c>
       <c r="G20" t="n">
         <v>267.9409358948915</v>
       </c>
       <c r="H20" t="n">
-        <v>166.8354259745244</v>
+        <v>166.8354259745243</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.062958362184993</v>
+        <v>2.062958362184965</v>
       </c>
       <c r="T20" t="n">
-        <v>66.4955782623323</v>
+        <v>66.49557826233227</v>
       </c>
       <c r="U20" t="n">
         <v>106.5003256346044</v>
@@ -2147,7 +2147,7 @@
         <v>225.1045972614988</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.6114352390834</v>
+        <v>141.1991861751614</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.20547676496707</v>
+        <v>35.20547676496705</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>22.62031768165758</v>
       </c>
       <c r="D22" t="n">
-        <v>3.988969601242133</v>
+        <v>3.988969601242104</v>
       </c>
       <c r="E22" t="n">
-        <v>1.807459229598948</v>
+        <v>1.807459229598919</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7945446059610219</v>
+        <v>0.7945446059609935</v>
       </c>
       <c r="G22" t="n">
-        <v>22.13751533350386</v>
+        <v>22.13751533350383</v>
       </c>
       <c r="H22" t="n">
-        <v>66.8055243443373</v>
+        <v>6.69187386675099</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>118.5524231889554</v>
       </c>
       <c r="J22" t="n">
         <v>6.613065132155995</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.1247807672402</v>
       </c>
       <c r="S22" t="n">
-        <v>58.00751747903269</v>
+        <v>166.6969708343642</v>
       </c>
       <c r="T22" t="n">
-        <v>222.7031213759833</v>
+        <v>78.07661795901308</v>
       </c>
       <c r="U22" t="n">
-        <v>141.6256008154488</v>
+        <v>141.6256008154487</v>
       </c>
       <c r="V22" t="n">
-        <v>107.5111399068578</v>
+        <v>107.5111399068577</v>
       </c>
       <c r="W22" t="n">
-        <v>141.8964949196208</v>
+        <v>141.8964949196207</v>
       </c>
       <c r="X22" t="n">
-        <v>81.08315197206693</v>
+        <v>81.0831519720669</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.95814993512457</v>
+        <v>73.95814993512454</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>238.1073382465104</v>
+        <v>238.1073382465103</v>
       </c>
       <c r="C23" t="n">
         <v>220.6463883540373</v>
@@ -2324,7 +2324,7 @@
         <v>210.0565382037127</v>
       </c>
       <c r="E23" t="n">
-        <v>237.3038666552916</v>
+        <v>237.3038666552915</v>
       </c>
       <c r="F23" t="n">
         <v>262.2495423247412</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.062958362184993</v>
+        <v>2.062958362184965</v>
       </c>
       <c r="T23" t="n">
-        <v>66.4955782623323</v>
+        <v>66.49557826233227</v>
       </c>
       <c r="U23" t="n">
         <v>106.5003256346044</v>
@@ -2384,7 +2384,7 @@
         <v>225.1045972614988</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.6114352390834</v>
+        <v>241.6114352390833</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.20547676496707</v>
+        <v>35.20547676496705</v>
       </c>
       <c r="C25" t="n">
-        <v>82.73396815924404</v>
+        <v>22.62031768165758</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>3.988969601242104</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.807459229598919</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7945446059610219</v>
+        <v>0.7945446059609935</v>
       </c>
       <c r="G25" t="n">
-        <v>22.13751533350386</v>
+        <v>22.13751533350383</v>
       </c>
       <c r="H25" t="n">
-        <v>6.691873866751019</v>
+        <v>89.30724699406771</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.1247807672402</v>
       </c>
       <c r="S25" t="n">
-        <v>58.00751747903269</v>
+        <v>58.00751747903266</v>
       </c>
       <c r="T25" t="n">
-        <v>78.07661795901311</v>
+        <v>222.7031213759833</v>
       </c>
       <c r="U25" t="n">
-        <v>141.6256008154488</v>
+        <v>141.6256008154487</v>
       </c>
       <c r="V25" t="n">
-        <v>107.5111399068578</v>
+        <v>107.5111399068577</v>
       </c>
       <c r="W25" t="n">
-        <v>141.8964949196208</v>
+        <v>141.8964949196207</v>
       </c>
       <c r="X25" t="n">
-        <v>81.08315197206693</v>
+        <v>81.0831519720669</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.95814993512457</v>
+        <v>73.95814993512454</v>
       </c>
     </row>
     <row r="26">
@@ -3044,10 +3044,10 @@
         <v>332.2031061315103</v>
       </c>
       <c r="H32" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I32" t="n">
-        <v>24.65897240836091</v>
+        <v>24.65897240836094</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.32512859880376</v>
+        <v>66.3251285988038</v>
       </c>
       <c r="T32" t="n">
         <v>130.7577484989511</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.46764700158586</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C34" t="n">
-        <v>86.8824879182764</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D34" t="n">
-        <v>68.25113983786092</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E34" t="n">
-        <v>66.06962946621773</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F34" t="n">
-        <v>65.05671484257981</v>
+        <v>65.05671484257984</v>
       </c>
       <c r="G34" t="n">
-        <v>86.39968557012266</v>
+        <v>86.39968557012268</v>
       </c>
       <c r="H34" t="n">
-        <v>70.95404410336981</v>
+        <v>70.95404410336984</v>
       </c>
       <c r="I34" t="n">
-        <v>38.18809000860395</v>
+        <v>38.18809000860398</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76044758688877</v>
+        <v>41.7604475868888</v>
       </c>
       <c r="S34" t="n">
         <v>122.2696877156515</v>
@@ -3266,7 +3266,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C35" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D35" t="n">
         <v>274.3187084403315</v>
@@ -3278,13 +3278,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G35" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H35" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I35" t="n">
-        <v>24.65897240836095</v>
+        <v>24.65897240836094</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.32512859880381</v>
+        <v>66.3251285988038</v>
       </c>
       <c r="T35" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U35" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V35" t="n">
         <v>247.3879252897835</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.4676470015859</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C37" t="n">
-        <v>86.88248791827644</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D37" t="n">
-        <v>68.25113983786096</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E37" t="n">
-        <v>66.06962946621778</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F37" t="n">
-        <v>65.05671484257985</v>
+        <v>65.05671484257984</v>
       </c>
       <c r="G37" t="n">
-        <v>86.3996855701227</v>
+        <v>86.39968557012267</v>
       </c>
       <c r="H37" t="n">
-        <v>70.95404410336985</v>
+        <v>70.95404410336984</v>
       </c>
       <c r="I37" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860398</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.76044758688882</v>
+        <v>41.7604475868888</v>
       </c>
       <c r="S37" t="n">
         <v>122.2696877156515</v>
@@ -3487,7 +3487,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X37" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y37" t="n">
         <v>138.2203201717434</v>
@@ -3503,7 +3503,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C38" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D38" t="n">
         <v>274.3187084403315</v>
@@ -3515,13 +3515,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G38" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H38" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I38" t="n">
-        <v>24.65897240836095</v>
+        <v>24.65897240836094</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.32512859880381</v>
+        <v>66.3251285988038</v>
       </c>
       <c r="T38" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U38" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V38" t="n">
         <v>247.3879252897835</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.4676470015859</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C40" t="n">
-        <v>86.88248791827644</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D40" t="n">
-        <v>68.25113983786096</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E40" t="n">
-        <v>66.06962946621778</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F40" t="n">
-        <v>65.05671484257985</v>
+        <v>65.05671484257984</v>
       </c>
       <c r="G40" t="n">
-        <v>86.3996855701227</v>
+        <v>86.39968557012268</v>
       </c>
       <c r="H40" t="n">
-        <v>70.95404410336985</v>
+        <v>70.95404410336984</v>
       </c>
       <c r="I40" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860398</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.76044758688882</v>
+        <v>41.7604475868888</v>
       </c>
       <c r="S40" t="n">
         <v>122.2696877156515</v>
@@ -3724,7 +3724,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X40" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y40" t="n">
         <v>138.2203201717434</v>
@@ -3755,10 +3755,10 @@
         <v>332.2031061315103</v>
       </c>
       <c r="H41" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I41" t="n">
-        <v>24.65897240836091</v>
+        <v>24.65897240836094</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.32512859880376</v>
+        <v>66.3251285988038</v>
       </c>
       <c r="T41" t="n">
         <v>130.7577484989511</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.46764700158586</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C43" t="n">
-        <v>86.8824879182764</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D43" t="n">
-        <v>68.25113983786092</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E43" t="n">
-        <v>66.06962946621773</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F43" t="n">
-        <v>65.05671484257981</v>
+        <v>65.05671484257984</v>
       </c>
       <c r="G43" t="n">
-        <v>86.39968557012264</v>
+        <v>86.39968557012267</v>
       </c>
       <c r="H43" t="n">
-        <v>70.95404410336981</v>
+        <v>70.95404410336984</v>
       </c>
       <c r="I43" t="n">
-        <v>38.18809000860395</v>
+        <v>38.18809000860398</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.76044758688877</v>
+        <v>41.7604475868888</v>
       </c>
       <c r="S43" t="n">
         <v>122.2696877156515</v>
@@ -3977,7 +3977,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C44" t="n">
-        <v>284.9085585906561</v>
+        <v>284.9085585906562</v>
       </c>
       <c r="D44" t="n">
         <v>274.3187084403315</v>
@@ -3995,7 +3995,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I44" t="n">
-        <v>24.65897240836092</v>
+        <v>24.65897240836095</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.32512859880379</v>
+        <v>66.32512859880381</v>
       </c>
       <c r="T44" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U44" t="n">
-        <v>170.7624958712232</v>
+        <v>170.7624958712233</v>
       </c>
       <c r="V44" t="n">
         <v>247.3879252897835</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.46764700158587</v>
+        <v>99.4676470015859</v>
       </c>
       <c r="C46" t="n">
-        <v>86.88248791827641</v>
+        <v>86.88248791827644</v>
       </c>
       <c r="D46" t="n">
-        <v>68.25113983786093</v>
+        <v>68.25113983786096</v>
       </c>
       <c r="E46" t="n">
-        <v>66.06962946621775</v>
+        <v>66.06962946621778</v>
       </c>
       <c r="F46" t="n">
-        <v>65.05671484257982</v>
+        <v>65.05671484257985</v>
       </c>
       <c r="G46" t="n">
-        <v>86.39968557012267</v>
+        <v>86.39968557012268</v>
       </c>
       <c r="H46" t="n">
-        <v>70.95404410336982</v>
+        <v>70.95404410336985</v>
       </c>
       <c r="I46" t="n">
-        <v>38.18809000860396</v>
+        <v>38.18809000860399</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.76044758688879</v>
+        <v>41.76044758688882</v>
       </c>
       <c r="S46" t="n">
         <v>122.2696877156515</v>
@@ -4198,7 +4198,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X46" t="n">
-        <v>145.3453222086857</v>
+        <v>145.3453222086858</v>
       </c>
       <c r="Y46" t="n">
         <v>138.2203201717434</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1608.661248865077</v>
+        <v>1668.381175656365</v>
       </c>
       <c r="C11" t="n">
-        <v>1608.661248865077</v>
+        <v>1364.329941783245</v>
       </c>
       <c r="D11" t="n">
-        <v>1361.845116654866</v>
+        <v>1070.975526243786</v>
       </c>
       <c r="E11" t="n">
-        <v>1040.968147123913</v>
+        <v>750.0985567128333</v>
       </c>
       <c r="F11" t="n">
-        <v>694.8935254015973</v>
+        <v>404.0239349905174</v>
       </c>
       <c r="G11" t="n">
-        <v>343.0700212851904</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="H11" t="n">
-        <v>93.37329486612414</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I11" t="n">
         <v>52.20043087411048</v>
@@ -5042,19 +5042,19 @@
         <v>270.2041001343099</v>
       </c>
       <c r="K11" t="n">
-        <v>396.7759345361578</v>
+        <v>717.6798929816109</v>
       </c>
       <c r="L11" t="n">
-        <v>1004.185851621736</v>
+        <v>1325.089810067189</v>
       </c>
       <c r="M11" t="n">
-        <v>1342.158637321493</v>
+        <v>1660.73935841126</v>
       </c>
       <c r="N11" t="n">
-        <v>1598.225140049873</v>
+        <v>1916.805861139641</v>
       </c>
       <c r="O11" t="n">
-        <v>1826.686216137698</v>
+        <v>2145.266937227466</v>
       </c>
       <c r="P11" t="n">
         <v>2305.752179175668</v>
@@ -5072,19 +5072,19 @@
         <v>2526.761653258518</v>
       </c>
       <c r="U11" t="n">
-        <v>2526.761653258518</v>
+        <v>2338.00947263735</v>
       </c>
       <c r="V11" t="n">
-        <v>2526.761653258518</v>
+        <v>2071.85786836107</v>
       </c>
       <c r="W11" t="n">
-        <v>2238.904281055695</v>
+        <v>2071.85786836107</v>
       </c>
       <c r="X11" t="n">
-        <v>1930.349805861907</v>
+        <v>1763.303393167283</v>
       </c>
       <c r="Y11" t="n">
-        <v>1930.349805861907</v>
+        <v>1763.303393167283</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>190.6944732642096</v>
       </c>
       <c r="H12" t="n">
-        <v>91.60256992448006</v>
+        <v>91.60256992448012</v>
       </c>
       <c r="I12" t="n">
         <v>52.20043087411048</v>
@@ -5127,13 +5127,13 @@
         <v>1092.222207051634</v>
       </c>
       <c r="M12" t="n">
-        <v>1362.106270936719</v>
+        <v>1318.622262180892</v>
       </c>
       <c r="N12" t="n">
-        <v>2008.086603003836</v>
+        <v>1565.423098010779</v>
       </c>
       <c r="O12" t="n">
-        <v>2211.6413561325</v>
+        <v>1896.363215178962</v>
       </c>
       <c r="P12" t="n">
         <v>2355.67892497901</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.7870220923501</v>
+        <v>548.6976849055759</v>
       </c>
       <c r="C13" t="n">
-        <v>460.7621222317349</v>
+        <v>548.6976849055759</v>
       </c>
       <c r="D13" t="n">
-        <v>375.5567658866909</v>
+        <v>463.4923285605319</v>
       </c>
       <c r="E13" t="n">
-        <v>292.5549553715895</v>
+        <v>380.4905180454305</v>
       </c>
       <c r="F13" t="n">
-        <v>210.5762909409709</v>
+        <v>298.5118536148118</v>
       </c>
       <c r="G13" t="n">
-        <v>107.039070219905</v>
+        <v>194.9746328937458</v>
       </c>
       <c r="H13" t="n">
         <v>107.039070219905</v>
@@ -5203,13 +5203,13 @@
         <v>291.970805684555</v>
       </c>
       <c r="L13" t="n">
-        <v>563.4959032733535</v>
+        <v>563.4959032733536</v>
       </c>
       <c r="M13" t="n">
         <v>856.7118258711466</v>
       </c>
       <c r="N13" t="n">
-        <v>1149.90307628869</v>
+        <v>1149.903076288691</v>
       </c>
       <c r="O13" t="n">
         <v>1409.552953254355</v>
@@ -5221,28 +5221,28 @@
         <v>1697.422563974902</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.422563974902</v>
+        <v>1638.97548263084</v>
       </c>
       <c r="S13" t="n">
-        <v>1609.263276080582</v>
+        <v>1503.131694438729</v>
       </c>
       <c r="T13" t="n">
-        <v>1449.221911293345</v>
+        <v>1343.090329651493</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.989654731931</v>
+        <v>1118.858073090078</v>
       </c>
       <c r="V13" t="n">
-        <v>1224.989654731931</v>
+        <v>929.0848679514831</v>
       </c>
       <c r="W13" t="n">
-        <v>1000.483767762262</v>
+        <v>704.5789809818143</v>
       </c>
       <c r="X13" t="n">
-        <v>837.4054999315365</v>
+        <v>704.5789809818143</v>
       </c>
       <c r="Y13" t="n">
-        <v>681.5242038552981</v>
+        <v>548.6976849055759</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1422.94722726778</v>
+        <v>1357.730535531971</v>
       </c>
       <c r="C14" t="n">
-        <v>1361.845116654866</v>
+        <v>1053.679301658851</v>
       </c>
       <c r="D14" t="n">
-        <v>1361.845116654866</v>
+        <v>760.3248861193924</v>
       </c>
       <c r="E14" t="n">
-        <v>1040.968147123913</v>
+        <v>439.44791658844</v>
       </c>
       <c r="F14" t="n">
-        <v>694.8935254015975</v>
+        <v>93.37329486612414</v>
       </c>
       <c r="G14" t="n">
-        <v>343.0700212851905</v>
+        <v>93.37329486612414</v>
       </c>
       <c r="H14" t="n">
-        <v>93.37329486612408</v>
+        <v>93.37329486612414</v>
       </c>
       <c r="I14" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J14" t="n">
-        <v>102.7984511139569</v>
+        <v>270.2041001343099</v>
       </c>
       <c r="K14" t="n">
-        <v>342.2322033469601</v>
+        <v>717.6798929816109</v>
       </c>
       <c r="L14" t="n">
-        <v>949.642120432538</v>
+        <v>1325.089810067189</v>
       </c>
       <c r="M14" t="n">
-        <v>1197.090835866694</v>
+        <v>1892.66373640658</v>
       </c>
       <c r="N14" t="n">
-        <v>1453.157338595075</v>
+        <v>2148.73023913496</v>
       </c>
       <c r="O14" t="n">
-        <v>2058.610594133018</v>
+        <v>2377.191315222786</v>
       </c>
       <c r="P14" t="n">
         <v>2537.676557170988</v>
@@ -5309,19 +5309,19 @@
         <v>2378.418308366918</v>
       </c>
       <c r="U14" t="n">
-        <v>2378.418308366918</v>
+        <v>2189.666127745751</v>
       </c>
       <c r="V14" t="n">
-        <v>2378.418308366918</v>
+        <v>2189.666127745751</v>
       </c>
       <c r="W14" t="n">
-        <v>2378.418308366918</v>
+        <v>2189.666127745751</v>
       </c>
       <c r="X14" t="n">
-        <v>2069.86383317313</v>
+        <v>2004.647141437321</v>
       </c>
       <c r="Y14" t="n">
-        <v>1744.63578426461</v>
+        <v>1679.419092528801</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5346,7 @@
         <v>327.9470021540671</v>
       </c>
       <c r="G15" t="n">
-        <v>190.6944732642093</v>
+        <v>190.6944732642096</v>
       </c>
       <c r="H15" t="n">
         <v>91.60256992448006</v>
@@ -5361,19 +5361,19 @@
         <v>547.668195436525</v>
       </c>
       <c r="L15" t="n">
-        <v>725.0902652012096</v>
+        <v>800.0272941532942</v>
       </c>
       <c r="M15" t="n">
-        <v>1371.070597268327</v>
+        <v>1446.007626220411</v>
       </c>
       <c r="N15" t="n">
-        <v>1617.871433098214</v>
+        <v>1692.808462050298</v>
       </c>
       <c r="O15" t="n">
-        <v>2211.349882310839</v>
+        <v>1896.363215178962</v>
       </c>
       <c r="P15" t="n">
-        <v>2563.655439837501</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q15" t="n">
         <v>2610.021543705524</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>323.4035587274861</v>
+        <v>383.7172099598555</v>
       </c>
       <c r="C16" t="n">
-        <v>219.378658866871</v>
+        <v>383.7172099598555</v>
       </c>
       <c r="D16" t="n">
-        <v>134.1733025218271</v>
+        <v>298.5118536148115</v>
       </c>
       <c r="E16" t="n">
-        <v>134.1733025218271</v>
+        <v>298.5118536148115</v>
       </c>
       <c r="F16" t="n">
-        <v>134.1733025218271</v>
+        <v>298.5118536148115</v>
       </c>
       <c r="G16" t="n">
-        <v>134.1733025218271</v>
+        <v>194.9746328937456</v>
       </c>
       <c r="H16" t="n">
-        <v>52.20043087411048</v>
+        <v>107.039070219905</v>
       </c>
       <c r="I16" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J16" t="n">
-        <v>109.2730449275287</v>
+        <v>109.2730449275286</v>
       </c>
       <c r="K16" t="n">
-        <v>291.9708056845551</v>
+        <v>291.970805684555</v>
       </c>
       <c r="L16" t="n">
-        <v>563.4959032733537</v>
+        <v>563.4959032733536</v>
       </c>
       <c r="M16" t="n">
-        <v>856.711825871147</v>
+        <v>856.7118258711466</v>
       </c>
       <c r="N16" t="n">
-        <v>1149.903076288691</v>
+        <v>1149.90307628869</v>
       </c>
       <c r="O16" t="n">
         <v>1409.552953254355</v>
       </c>
       <c r="P16" t="n">
-        <v>1617.389630818506</v>
+        <v>1617.389630818505</v>
       </c>
       <c r="Q16" t="n">
-        <v>1697.422563974903</v>
+        <v>1697.422563974902</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.422563974903</v>
+        <v>1638.97548263084</v>
       </c>
       <c r="S16" t="n">
-        <v>1557.653017854313</v>
+        <v>1499.20593651025</v>
       </c>
       <c r="T16" t="n">
-        <v>1397.611653067076</v>
+        <v>1339.164571723013</v>
       </c>
       <c r="U16" t="n">
-        <v>1173.379396505662</v>
+        <v>1233.693047738032</v>
       </c>
       <c r="V16" t="n">
-        <v>983.6061913670668</v>
+        <v>1043.919842599436</v>
       </c>
       <c r="W16" t="n">
-        <v>759.100304397398</v>
+        <v>819.4139556297674</v>
       </c>
       <c r="X16" t="n">
-        <v>596.0220365666723</v>
+        <v>656.3356877990418</v>
       </c>
       <c r="Y16" t="n">
-        <v>440.140740490434</v>
+        <v>500.4543917228035</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1431.021337346029</v>
+        <v>1329.594823140048</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.146197594476</v>
+        <v>1106.719683388495</v>
       </c>
       <c r="D17" t="n">
-        <v>995.9678761765838</v>
+        <v>894.5413619706029</v>
       </c>
       <c r="E17" t="n">
-        <v>756.2670007671984</v>
+        <v>654.8404865612175</v>
       </c>
       <c r="F17" t="n">
-        <v>491.3684731664497</v>
+        <v>389.9419589604688</v>
       </c>
       <c r="G17" t="n">
         <v>220.7210631716098</v>
@@ -5513,28 +5513,28 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J17" t="n">
-        <v>270.2041001343099</v>
+        <v>102.7984511139569</v>
       </c>
       <c r="K17" t="n">
-        <v>717.6798929816109</v>
+        <v>307.5780162163275</v>
       </c>
       <c r="L17" t="n">
-        <v>911.6052076622429</v>
+        <v>914.9879333019054</v>
       </c>
       <c r="M17" t="n">
-        <v>1557.58553972936</v>
+        <v>1162.436648736061</v>
       </c>
       <c r="N17" t="n">
-        <v>1813.652042457741</v>
+        <v>1808.416980803179</v>
       </c>
       <c r="O17" t="n">
-        <v>2058.610594133018</v>
+        <v>2036.878056891004</v>
       </c>
       <c r="P17" t="n">
-        <v>2537.676557170988</v>
+        <v>2515.944019928973</v>
       </c>
       <c r="Q17" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.28900646351</v>
       </c>
       <c r="R17" t="n">
         <v>2610.021543705524</v>
@@ -5546,19 +5546,19 @@
         <v>2540.770496610052</v>
       </c>
       <c r="U17" t="n">
-        <v>2534.620924316433</v>
+        <v>2433.194410110451</v>
       </c>
       <c r="V17" t="n">
-        <v>2349.645414161721</v>
+        <v>2248.21889995574</v>
       </c>
       <c r="W17" t="n">
-        <v>2142.964136080465</v>
+        <v>2041.537621874484</v>
       </c>
       <c r="X17" t="n">
-        <v>1915.585755008244</v>
+        <v>1814.159240802263</v>
       </c>
       <c r="Y17" t="n">
-        <v>1671.533800221292</v>
+        <v>1570.107286015311</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>63.51841814083016</v>
       </c>
       <c r="K18" t="n">
-        <v>422.8380704495203</v>
+        <v>285.1298633920824</v>
       </c>
       <c r="L18" t="n">
-        <v>967.3920820646294</v>
+        <v>829.6838750071915</v>
       </c>
       <c r="M18" t="n">
-        <v>1613.372414131747</v>
+        <v>1056.083930136449</v>
       </c>
       <c r="N18" t="n">
-        <v>2216.063117862327</v>
+        <v>1302.884765966336</v>
       </c>
       <c r="O18" t="n">
-        <v>2419.61787099099</v>
+        <v>1896.363215178962</v>
       </c>
       <c r="P18" t="n">
-        <v>2563.655439837501</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q18" t="n">
         <v>2610.021543705524</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>178.2281035291174</v>
+        <v>110.8273806909937</v>
       </c>
       <c r="C19" t="n">
-        <v>155.3792977900693</v>
+        <v>87.97857495194567</v>
       </c>
       <c r="D19" t="n">
-        <v>151.3500355665924</v>
+        <v>83.9493127284688</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5243191730581</v>
+        <v>82.12359633493453</v>
       </c>
       <c r="F19" t="n">
-        <v>148.7217488640066</v>
+        <v>81.32102602588303</v>
       </c>
       <c r="G19" t="n">
-        <v>126.3606222645078</v>
+        <v>58.95989942638421</v>
       </c>
       <c r="H19" t="n">
         <v>52.20043087411048</v>
@@ -5698,25 +5698,25 @@
         <v>1195.013110181716</v>
       </c>
       <c r="S19" t="n">
-        <v>1136.419658182693</v>
+        <v>990.3322809938338</v>
       </c>
       <c r="T19" t="n">
-        <v>1057.554387517023</v>
+        <v>765.3796331393052</v>
       </c>
       <c r="U19" t="n">
-        <v>768.4108478883168</v>
+        <v>554.9227478613342</v>
       </c>
       <c r="V19" t="n">
-        <v>659.8137368712887</v>
+        <v>446.3256368443061</v>
       </c>
       <c r="W19" t="n">
-        <v>516.483944023187</v>
+        <v>302.9958439962044</v>
       </c>
       <c r="X19" t="n">
-        <v>434.5817703140284</v>
+        <v>221.0936702870459</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.7891911704983</v>
+        <v>146.3884683323746</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1329.594823140047</v>
+        <v>1431.021337346028</v>
       </c>
       <c r="C20" t="n">
-        <v>1106.719683388494</v>
+        <v>1208.146197594475</v>
       </c>
       <c r="D20" t="n">
-        <v>894.5413619706027</v>
+        <v>995.9678761765838</v>
       </c>
       <c r="E20" t="n">
-        <v>654.8404865612173</v>
+        <v>756.2670007671984</v>
       </c>
       <c r="F20" t="n">
         <v>491.3684731664497</v>
@@ -5750,25 +5750,25 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J20" t="n">
-        <v>270.2041001343099</v>
+        <v>102.7984511139569</v>
       </c>
       <c r="K20" t="n">
-        <v>396.7759345361578</v>
+        <v>550.2742439612579</v>
       </c>
       <c r="L20" t="n">
-        <v>590.7012492167897</v>
+        <v>744.1995586418898</v>
       </c>
       <c r="M20" t="n">
-        <v>1236.681581283907</v>
+        <v>991.6482740760458</v>
       </c>
       <c r="N20" t="n">
-        <v>1882.661913351024</v>
+        <v>1637.628606143163</v>
       </c>
       <c r="O20" t="n">
-        <v>2111.122989438849</v>
+        <v>1866.089682230988</v>
       </c>
       <c r="P20" t="n">
-        <v>2537.676557170988</v>
+        <v>2327.484716417682</v>
       </c>
       <c r="Q20" t="n">
         <v>2610.021543705524</v>
@@ -5786,7 +5786,7 @@
         <v>2433.194410110451</v>
       </c>
       <c r="V20" t="n">
-        <v>2248.21889995574</v>
+        <v>2248.218899955739</v>
       </c>
       <c r="W20" t="n">
         <v>2041.537621874484</v>
@@ -5795,7 +5795,7 @@
         <v>1814.159240802263</v>
       </c>
       <c r="Y20" t="n">
-        <v>1570.10728601531</v>
+        <v>1671.533800221291</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J21" t="n">
-        <v>188.3485431278349</v>
+        <v>63.51841814083016</v>
       </c>
       <c r="K21" t="n">
-        <v>285.8476107940722</v>
+        <v>285.1298633920824</v>
       </c>
       <c r="L21" t="n">
-        <v>463.2696805587568</v>
+        <v>829.6838750071915</v>
       </c>
       <c r="M21" t="n">
-        <v>1109.250012625874</v>
+        <v>1056.083930136449</v>
       </c>
       <c r="N21" t="n">
-        <v>1755.230344692991</v>
+        <v>1302.884765966336</v>
       </c>
       <c r="O21" t="n">
-        <v>2211.6413561325</v>
+        <v>1896.363215178962</v>
       </c>
       <c r="P21" t="n">
         <v>2355.67892497901</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3154807179762</v>
+        <v>237.2571668739345</v>
       </c>
       <c r="C22" t="n">
-        <v>155.3792977900693</v>
+        <v>214.4083611348865</v>
       </c>
       <c r="D22" t="n">
-        <v>151.3500355665924</v>
+        <v>210.3790989114096</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5243191730581</v>
+        <v>208.5533825178753</v>
       </c>
       <c r="F22" t="n">
-        <v>148.7217488640066</v>
+        <v>207.7508122088238</v>
       </c>
       <c r="G22" t="n">
-        <v>126.3606222645078</v>
+        <v>185.389685609325</v>
       </c>
       <c r="H22" t="n">
-        <v>58.88029464396502</v>
+        <v>178.6302170570513</v>
       </c>
       <c r="I22" t="n">
         <v>58.88029464396502</v>
@@ -5932,28 +5932,28 @@
         <v>1195.013110181716</v>
       </c>
       <c r="R22" t="n">
-        <v>1195.013110181716</v>
+        <v>1071.654745770362</v>
       </c>
       <c r="S22" t="n">
-        <v>1136.419658182693</v>
+        <v>903.2739671497919</v>
       </c>
       <c r="T22" t="n">
-        <v>911.4670103281641</v>
+        <v>824.4086964841222</v>
       </c>
       <c r="U22" t="n">
-        <v>768.4108478883168</v>
+        <v>681.352534044275</v>
       </c>
       <c r="V22" t="n">
-        <v>659.8137368712887</v>
+        <v>572.7554230272469</v>
       </c>
       <c r="W22" t="n">
-        <v>516.483944023187</v>
+        <v>429.4256301791451</v>
       </c>
       <c r="X22" t="n">
-        <v>434.5817703140284</v>
+        <v>347.5234564699866</v>
       </c>
       <c r="Y22" t="n">
-        <v>359.8765683593571</v>
+        <v>272.8182545153154</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1433.091266207375</v>
+        <v>1433.091266207373</v>
       </c>
       <c r="C23" t="n">
-        <v>1210.216126455822</v>
+        <v>1210.216126455821</v>
       </c>
       <c r="D23" t="n">
-        <v>998.0378050379304</v>
+        <v>998.037805037929</v>
       </c>
       <c r="E23" t="n">
-        <v>758.3369296285448</v>
+        <v>758.3369296285441</v>
       </c>
       <c r="F23" t="n">
-        <v>493.4384020277962</v>
+        <v>493.4384020277957</v>
       </c>
       <c r="G23" t="n">
-        <v>222.7909920329564</v>
+        <v>222.7909920329563</v>
       </c>
       <c r="H23" t="n">
-        <v>54.27035973545703</v>
+        <v>54.27035973545701</v>
       </c>
       <c r="I23" t="n">
-        <v>54.27035973545703</v>
+        <v>54.27035973545701</v>
       </c>
       <c r="J23" t="n">
-        <v>104.8683799753034</v>
+        <v>272.2740289956564</v>
       </c>
       <c r="K23" t="n">
-        <v>407.1916268665058</v>
+        <v>398.8458633975043</v>
       </c>
       <c r="L23" t="n">
-        <v>1014.601543952084</v>
+        <v>1006.255780483082</v>
       </c>
       <c r="M23" t="n">
-        <v>1262.05025938624</v>
+        <v>1253.704495917238</v>
       </c>
       <c r="N23" t="n">
-        <v>1933.64596111252</v>
+        <v>1643.31012475685</v>
       </c>
       <c r="O23" t="n">
-        <v>2162.107037200346</v>
+        <v>2248.763380294793</v>
       </c>
       <c r="P23" t="n">
-        <v>2641.173000238315</v>
+        <v>2409.248622242995</v>
       </c>
       <c r="Q23" t="n">
-        <v>2713.517986772852</v>
+        <v>2691.785449530837</v>
       </c>
       <c r="R23" t="n">
-        <v>2713.517986772852</v>
+        <v>2713.517986772851</v>
       </c>
       <c r="S23" t="n">
-        <v>2711.434190447412</v>
+        <v>2711.434190447411</v>
       </c>
       <c r="T23" t="n">
         <v>2644.266939677379</v>
       </c>
       <c r="U23" t="n">
-        <v>2536.690853177779</v>
+        <v>2536.690853177778</v>
       </c>
       <c r="V23" t="n">
-        <v>2351.715343023067</v>
+        <v>2351.715343023066</v>
       </c>
       <c r="W23" t="n">
-        <v>2145.034064941812</v>
+        <v>2145.03406494181</v>
       </c>
       <c r="X23" t="n">
-        <v>1917.655683869591</v>
+        <v>1917.655683869589</v>
       </c>
       <c r="Y23" t="n">
-        <v>1673.603729082638</v>
+        <v>1673.603729082636</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>192.7644021255559</v>
       </c>
       <c r="H24" t="n">
-        <v>93.6724987858266</v>
+        <v>93.67249878582659</v>
       </c>
       <c r="I24" t="n">
-        <v>54.27035973545703</v>
+        <v>54.27035973545701</v>
       </c>
       <c r="J24" t="n">
-        <v>65.58834700217672</v>
+        <v>190.4184719891815</v>
       </c>
       <c r="K24" t="n">
-        <v>163.087414668414</v>
+        <v>549.7381242978715</v>
       </c>
       <c r="L24" t="n">
-        <v>707.6414262835232</v>
+        <v>727.1601940625561</v>
       </c>
       <c r="M24" t="n">
-        <v>1379.237128009804</v>
+        <v>953.5602491918138</v>
       </c>
       <c r="N24" t="n">
-        <v>1626.037963839691</v>
+        <v>1304.954694827683</v>
       </c>
       <c r="O24" t="n">
-        <v>2106.409658898799</v>
+        <v>1898.433144040308</v>
       </c>
       <c r="P24" t="n">
-        <v>2565.725368698847</v>
+        <v>2357.748853840356</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.09147256687</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>472.4727867681818</v>
+        <v>203.0270451679693</v>
       </c>
       <c r="C25" t="n">
-        <v>388.9031219608646</v>
+        <v>180.1782394289212</v>
       </c>
       <c r="D25" t="n">
-        <v>238.7864825485288</v>
+        <v>176.1489772054443</v>
       </c>
       <c r="E25" t="n">
-        <v>90.87338896613571</v>
+        <v>174.3232608119101</v>
       </c>
       <c r="F25" t="n">
-        <v>90.07081865708417</v>
+        <v>173.5206905028586</v>
       </c>
       <c r="G25" t="n">
-        <v>67.70969205758533</v>
+        <v>151.1595639033598</v>
       </c>
       <c r="H25" t="n">
-        <v>60.95022350531158</v>
+        <v>60.95022350531156</v>
       </c>
       <c r="I25" t="n">
-        <v>60.95022350531158</v>
+        <v>60.95022350531156</v>
       </c>
       <c r="J25" t="n">
-        <v>54.27035973545703</v>
+        <v>54.27035973545701</v>
       </c>
       <c r="K25" t="n">
         <v>173.3485719582307</v>
       </c>
       <c r="L25" t="n">
-        <v>381.2541210127767</v>
+        <v>381.2541210127766</v>
       </c>
       <c r="M25" t="n">
-        <v>610.8504950763172</v>
+        <v>610.8504950763171</v>
       </c>
       <c r="N25" t="n">
-        <v>840.4221969596085</v>
+        <v>840.4221969596084</v>
       </c>
       <c r="O25" t="n">
         <v>1036.45252539102</v>
@@ -6169,28 +6169,28 @@
         <v>1197.083039043062</v>
       </c>
       <c r="R25" t="n">
-        <v>1197.083039043062</v>
+        <v>1073.724674631708</v>
       </c>
       <c r="S25" t="n">
-        <v>1138.489587044039</v>
+        <v>1015.131222632686</v>
       </c>
       <c r="T25" t="n">
-        <v>1059.624316378369</v>
+        <v>790.1785747781569</v>
       </c>
       <c r="U25" t="n">
-        <v>916.5681539385223</v>
+        <v>647.1224123383097</v>
       </c>
       <c r="V25" t="n">
-        <v>807.9710429214942</v>
+        <v>538.5253013212816</v>
       </c>
       <c r="W25" t="n">
-        <v>664.6412500733925</v>
+        <v>395.1955084731799</v>
       </c>
       <c r="X25" t="n">
-        <v>582.7390763642339</v>
+        <v>313.2933347640214</v>
       </c>
       <c r="Y25" t="n">
-        <v>508.0338744095627</v>
+        <v>238.5881328093501</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C26" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D26" t="n">
         <v>1301.645398732179</v>
       </c>
       <c r="E26" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F26" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G26" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253297</v>
       </c>
       <c r="H26" t="n">
         <v>98.23282116053866</v>
@@ -6230,7 +6230,7 @@
         <v>738.8042303303007</v>
       </c>
       <c r="L26" t="n">
-        <v>1346.214147415879</v>
+        <v>1328.916211713808</v>
       </c>
       <c r="M26" t="n">
         <v>2021.383325305868</v>
@@ -6303,22 +6303,22 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J27" t="n">
-        <v>84.64275548952</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9624077982101</v>
+        <v>568.7925327852148</v>
       </c>
       <c r="L27" t="n">
-        <v>621.3844775628946</v>
+        <v>746.2146025498994</v>
       </c>
       <c r="M27" t="n">
-        <v>847.7845326921522</v>
+        <v>1077.208267485139</v>
       </c>
       <c r="N27" t="n">
-        <v>1569.134319122157</v>
+        <v>1324.009103315026</v>
       </c>
       <c r="O27" t="n">
-        <v>2162.612768334783</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P27" t="n">
         <v>2376.8032623277</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.9932447349532</v>
+        <v>559.9932447349527</v>
       </c>
       <c r="C28" t="n">
-        <v>472.2331559286134</v>
+        <v>472.2331559286129</v>
       </c>
       <c r="D28" t="n">
-        <v>403.2926106378448</v>
+        <v>403.2926106378442</v>
       </c>
       <c r="E28" t="n">
-        <v>336.5556111770188</v>
+        <v>336.5556111770182</v>
       </c>
       <c r="F28" t="n">
-        <v>270.8417578006756</v>
+        <v>270.841757800675</v>
       </c>
       <c r="G28" t="n">
-        <v>183.569348133885</v>
+        <v>183.5693481338844</v>
       </c>
       <c r="H28" t="n">
         <v>111.8985965143195</v>
@@ -6388,16 +6388,16 @@
         <v>344.9774256618354</v>
       </c>
       <c r="L28" t="n">
-        <v>632.4436645649289</v>
+        <v>632.4436645649292</v>
       </c>
       <c r="M28" t="n">
-        <v>941.6007284770172</v>
+        <v>941.6007284770178</v>
       </c>
       <c r="N28" t="n">
-        <v>1250.733120208856</v>
+        <v>1250.733120208857</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488817</v>
       </c>
       <c r="P28" t="n">
         <v>1750.101957367262</v>
@@ -6421,13 +6421,13 @@
         <v>1155.136633157432</v>
       </c>
       <c r="W28" t="n">
-        <v>946.8955572420389</v>
+        <v>946.8955572420388</v>
       </c>
       <c r="X28" t="n">
-        <v>800.0821004655887</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.4656154436258</v>
+        <v>660.4656154436252</v>
       </c>
     </row>
     <row r="29">
@@ -6440,25 +6440,25 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C29" t="n">
-        <v>1578.735003217362</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D29" t="n">
         <v>1301.645398732179</v>
       </c>
       <c r="E29" t="n">
-        <v>997.0332402555014</v>
+        <v>997.0332402555023</v>
       </c>
       <c r="F29" t="n">
-        <v>667.2234295874609</v>
+        <v>667.2234295874619</v>
       </c>
       <c r="G29" t="n">
-        <v>331.6647365253293</v>
+        <v>331.6647365253302</v>
       </c>
       <c r="H29" t="n">
-        <v>98.23282116053868</v>
+        <v>98.23282116053869</v>
       </c>
       <c r="I29" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J29" t="n">
         <v>291.3284374829998</v>
@@ -6470,22 +6470,22 @@
         <v>1346.214147415879</v>
       </c>
       <c r="M29" t="n">
-        <v>2038.681261007939</v>
+        <v>2021.383325305869</v>
       </c>
       <c r="N29" t="n">
-        <v>2617.763086366031</v>
+        <v>2277.44982803425</v>
       </c>
       <c r="O29" t="n">
-        <v>3223.216341903974</v>
+        <v>2882.903083572192</v>
       </c>
       <c r="P29" t="n">
-        <v>3383.701583852176</v>
+        <v>3361.969046610162</v>
       </c>
       <c r="Q29" t="n">
-        <v>3666.238411140017</v>
+        <v>3644.505873898004</v>
       </c>
       <c r="R29" t="n">
-        <v>3666.238411140017</v>
+        <v>3666.238411140018</v>
       </c>
       <c r="S29" t="n">
         <v>3599.243331747286</v>
@@ -6497,16 +6497,16 @@
         <v>3294.67742834307</v>
       </c>
       <c r="V29" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W29" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X29" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y29" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I30" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J30" t="n">
         <v>209.4728804765248</v>
@@ -6546,19 +6546,19 @@
         <v>568.7925327852149</v>
       </c>
       <c r="L30" t="n">
-        <v>746.2146025498995</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M30" t="n">
-        <v>1433.662670791657</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N30" t="n">
-        <v>2155.012457221662</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O30" t="n">
-        <v>2358.567210350326</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P30" t="n">
-        <v>2502.604779196836</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q30" t="n">
         <v>2631.145881054214</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.9932447349529</v>
+        <v>559.9932447349535</v>
       </c>
       <c r="C31" t="n">
-        <v>472.2331559286131</v>
+        <v>472.2331559286137</v>
       </c>
       <c r="D31" t="n">
-        <v>403.2926106378444</v>
+        <v>403.292610637845</v>
       </c>
       <c r="E31" t="n">
-        <v>336.5556111770184</v>
+        <v>336.5556111770189</v>
       </c>
       <c r="F31" t="n">
-        <v>270.8417578006751</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G31" t="n">
-        <v>183.5693481338844</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H31" t="n">
-        <v>111.8985965143193</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I31" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J31" t="n">
         <v>146.3385235905138</v>
       </c>
       <c r="K31" t="n">
-        <v>344.9774256618354</v>
+        <v>344.9774256618353</v>
       </c>
       <c r="L31" t="n">
         <v>632.4436645649291</v>
@@ -6640,7 +6640,7 @@
         <v>1750.101957367262</v>
       </c>
       <c r="Q31" t="n">
-        <v>1846.076031837954</v>
+        <v>1846.076031837955</v>
       </c>
       <c r="R31" t="n">
         <v>1803.893761548168</v>
@@ -6649,22 +6649,22 @@
         <v>1680.389026481853</v>
       </c>
       <c r="T31" t="n">
-        <v>1536.612472748891</v>
+        <v>1536.612472748892</v>
       </c>
       <c r="U31" t="n">
-        <v>1328.645027241752</v>
+        <v>1328.645027241753</v>
       </c>
       <c r="V31" t="n">
-        <v>1155.136633157432</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W31" t="n">
-        <v>946.895557242039</v>
+        <v>946.8955572420393</v>
       </c>
       <c r="X31" t="n">
-        <v>800.0821004655887</v>
+        <v>800.0821004655891</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.4656154436256</v>
+        <v>660.4656154436261</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036208</v>
       </c>
       <c r="C32" t="n">
-        <v>1578.735003217362</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D32" t="n">
-        <v>1301.645398732179</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E32" t="n">
-        <v>997.0332402555018</v>
+        <v>997.0332402555027</v>
       </c>
       <c r="F32" t="n">
-        <v>667.2234295874614</v>
+        <v>667.2234295874623</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6647365253298</v>
+        <v>331.6647365253307</v>
       </c>
       <c r="H32" t="n">
-        <v>98.23282116053863</v>
+        <v>98.23282116053868</v>
       </c>
       <c r="I32" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J32" t="n">
         <v>291.3284374829998</v>
       </c>
       <c r="K32" t="n">
-        <v>702.0174418653112</v>
+        <v>738.8042303303007</v>
       </c>
       <c r="L32" t="n">
-        <v>895.9427565459432</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.409870138003</v>
+        <v>2038.681261007939</v>
       </c>
       <c r="N32" t="n">
-        <v>2277.449828034249</v>
+        <v>2294.74776373632</v>
       </c>
       <c r="O32" t="n">
-        <v>2882.903083572191</v>
+        <v>2882.903083572192</v>
       </c>
       <c r="P32" t="n">
-        <v>3361.969046610161</v>
+        <v>3361.969046610162</v>
       </c>
       <c r="Q32" t="n">
-        <v>3644.505873898003</v>
+        <v>3644.505873898004</v>
       </c>
       <c r="R32" t="n">
-        <v>3666.238411140017</v>
+        <v>3666.238411140018</v>
       </c>
       <c r="S32" t="n">
-        <v>3599.243331747286</v>
+        <v>3599.243331747287</v>
       </c>
       <c r="T32" t="n">
-        <v>3467.164797909961</v>
+        <v>3467.164797909963</v>
       </c>
       <c r="U32" t="n">
-        <v>3294.677428343069</v>
+        <v>3294.67742834307</v>
       </c>
       <c r="V32" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W32" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X32" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y32" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.945171978763</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I33" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J33" t="n">
-        <v>84.64275548952003</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K33" t="n">
-        <v>443.9624077982102</v>
+        <v>568.7925327852149</v>
       </c>
       <c r="L33" t="n">
-        <v>621.3844775628947</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M33" t="n">
-        <v>1308.832545804652</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N33" t="n">
-        <v>2030.182332234657</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O33" t="n">
-        <v>2440.74220833968</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P33" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q33" t="n">
         <v>2631.145881054214</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.9932447349531</v>
+        <v>559.9932447349535</v>
       </c>
       <c r="C34" t="n">
-        <v>472.2331559286133</v>
+        <v>472.2331559286136</v>
       </c>
       <c r="D34" t="n">
-        <v>403.2926106378447</v>
+        <v>403.292610637845</v>
       </c>
       <c r="E34" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770189</v>
       </c>
       <c r="F34" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G34" t="n">
-        <v>183.5693481338849</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H34" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I34" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J34" t="n">
-        <v>146.3385235905139</v>
+        <v>146.3385235905141</v>
       </c>
       <c r="K34" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618357</v>
       </c>
       <c r="L34" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649296</v>
       </c>
       <c r="M34" t="n">
-        <v>941.6007284770177</v>
+        <v>941.6007284770179</v>
       </c>
       <c r="N34" t="n">
         <v>1250.733120208857</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488817</v>
       </c>
       <c r="P34" t="n">
         <v>1750.101957367262</v>
       </c>
       <c r="Q34" t="n">
-        <v>1846.076031837954</v>
+        <v>1846.076031837955</v>
       </c>
       <c r="R34" t="n">
         <v>1803.893761548168</v>
@@ -6886,22 +6886,22 @@
         <v>1680.389026481853</v>
       </c>
       <c r="T34" t="n">
-        <v>1536.612472748891</v>
+        <v>1536.612472748892</v>
       </c>
       <c r="U34" t="n">
-        <v>1328.645027241752</v>
+        <v>1328.645027241753</v>
       </c>
       <c r="V34" t="n">
         <v>1155.136633157433</v>
       </c>
       <c r="W34" t="n">
-        <v>946.8955572420392</v>
+        <v>946.8955572420393</v>
       </c>
       <c r="X34" t="n">
         <v>800.0821004655891</v>
       </c>
       <c r="Y34" t="n">
-        <v>660.4656154436257</v>
+        <v>660.4656154436261</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1578.735003217363</v>
       </c>
       <c r="D35" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E35" t="n">
         <v>997.0332402555023</v>
@@ -6932,7 +6932,7 @@
         <v>98.23282116053868</v>
       </c>
       <c r="I35" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J35" t="n">
         <v>291.3284374829998</v>
@@ -6944,28 +6944,28 @@
         <v>1346.214147415879</v>
       </c>
       <c r="M35" t="n">
-        <v>1906.990591227771</v>
+        <v>1593.662862850035</v>
       </c>
       <c r="N35" t="n">
-        <v>2596.030549124016</v>
+        <v>2277.44982803425</v>
       </c>
       <c r="O35" t="n">
-        <v>3201.483804661959</v>
+        <v>2882.903083572192</v>
       </c>
       <c r="P35" t="n">
-        <v>3361.969046610161</v>
+        <v>3361.969046610162</v>
       </c>
       <c r="Q35" t="n">
-        <v>3644.505873898003</v>
+        <v>3644.505873898004</v>
       </c>
       <c r="R35" t="n">
-        <v>3666.238411140017</v>
+        <v>3666.238411140018</v>
       </c>
       <c r="S35" t="n">
-        <v>3599.243331747286</v>
+        <v>3599.243331747287</v>
       </c>
       <c r="T35" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909963</v>
       </c>
       <c r="U35" t="n">
         <v>3294.67742834307</v>
@@ -7011,7 +7011,7 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I36" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J36" t="n">
         <v>209.4728804765248</v>
@@ -7020,19 +7020,19 @@
         <v>568.7925327852149</v>
       </c>
       <c r="L36" t="n">
-        <v>828.3896005392544</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M36" t="n">
-        <v>1515.837668781012</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N36" t="n">
-        <v>2237.187455211017</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.74220833968</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P36" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q36" t="n">
         <v>2631.145881054214</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.9932447349534</v>
+        <v>559.9932447349535</v>
       </c>
       <c r="C37" t="n">
-        <v>472.2331559286135</v>
+        <v>472.2331559286136</v>
       </c>
       <c r="D37" t="n">
-        <v>403.2926106378449</v>
+        <v>403.292610637845</v>
       </c>
       <c r="E37" t="n">
-        <v>336.5556111770188</v>
+        <v>336.5556111770189</v>
       </c>
       <c r="F37" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G37" t="n">
-        <v>183.5693481338849</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H37" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I37" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J37" t="n">
-        <v>146.3385235905137</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K37" t="n">
-        <v>344.9774256618352</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L37" t="n">
-        <v>632.4436645649291</v>
+        <v>632.4436645649292</v>
       </c>
       <c r="M37" t="n">
-        <v>941.6007284770175</v>
+        <v>941.6007284770179</v>
       </c>
       <c r="N37" t="n">
         <v>1250.733120208857</v>
@@ -7114,7 +7114,7 @@
         <v>1750.101957367262</v>
       </c>
       <c r="Q37" t="n">
-        <v>1846.076031837954</v>
+        <v>1846.076031837955</v>
       </c>
       <c r="R37" t="n">
         <v>1803.893761548168</v>
@@ -7138,7 +7138,7 @@
         <v>800.0821004655891</v>
       </c>
       <c r="Y37" t="n">
-        <v>660.465615443626</v>
+        <v>660.4656154436261</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1301.64539873218</v>
       </c>
       <c r="E38" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555027</v>
       </c>
       <c r="F38" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874623</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253307</v>
       </c>
       <c r="H38" t="n">
         <v>98.23282116053868</v>
       </c>
       <c r="I38" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J38" t="n">
         <v>291.3284374829998</v>
@@ -7178,31 +7178,31 @@
         <v>738.8042303303007</v>
       </c>
       <c r="L38" t="n">
-        <v>1346.214147415879</v>
+        <v>1328.916211713808</v>
       </c>
       <c r="M38" t="n">
-        <v>2038.681261007939</v>
+        <v>2021.383325305869</v>
       </c>
       <c r="N38" t="n">
-        <v>2294.74776373632</v>
+        <v>2277.44982803425</v>
       </c>
       <c r="O38" t="n">
-        <v>2900.201019274263</v>
+        <v>2882.903083572192</v>
       </c>
       <c r="P38" t="n">
-        <v>3379.266982312232</v>
+        <v>3361.969046610162</v>
       </c>
       <c r="Q38" t="n">
-        <v>3644.505873898003</v>
+        <v>3644.505873898004</v>
       </c>
       <c r="R38" t="n">
-        <v>3666.238411140017</v>
+        <v>3666.238411140018</v>
       </c>
       <c r="S38" t="n">
-        <v>3599.243331747286</v>
+        <v>3599.243331747287</v>
       </c>
       <c r="T38" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909963</v>
       </c>
       <c r="U38" t="n">
         <v>3294.67742834307</v>
@@ -7248,7 +7248,7 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I39" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J39" t="n">
         <v>209.4728804765248</v>
@@ -7260,16 +7260,16 @@
         <v>1113.346544400324</v>
       </c>
       <c r="M39" t="n">
-        <v>1800.794612642082</v>
+        <v>1467.131963569101</v>
       </c>
       <c r="N39" t="n">
-        <v>2237.187455211017</v>
+        <v>1713.932799398988</v>
       </c>
       <c r="O39" t="n">
-        <v>2440.74220833968</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P39" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q39" t="n">
         <v>2631.145881054214</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.9932447349536</v>
+        <v>559.9932447349535</v>
       </c>
       <c r="C40" t="n">
-        <v>472.2331559286138</v>
+        <v>472.2331559286136</v>
       </c>
       <c r="D40" t="n">
-        <v>403.2926106378451</v>
+        <v>403.292610637845</v>
       </c>
       <c r="E40" t="n">
-        <v>336.555611177019</v>
+        <v>336.5556111770189</v>
       </c>
       <c r="F40" t="n">
-        <v>270.8417578006757</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G40" t="n">
-        <v>183.5693481338851</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H40" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I40" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J40" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905136</v>
       </c>
       <c r="K40" t="n">
-        <v>344.9774256618353</v>
+        <v>344.9774256618352</v>
       </c>
       <c r="L40" t="n">
-        <v>632.4436645649291</v>
+        <v>632.443664564929</v>
       </c>
       <c r="M40" t="n">
-        <v>941.6007284770177</v>
+        <v>941.600728477017</v>
       </c>
       <c r="N40" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.324138488817</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P40" t="n">
         <v>1750.101957367262</v>
       </c>
       <c r="Q40" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R40" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S40" t="n">
         <v>1680.389026481853</v>
       </c>
       <c r="T40" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U40" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V40" t="n">
         <v>1155.136633157433</v>
       </c>
       <c r="W40" t="n">
-        <v>946.8955572420396</v>
+        <v>946.8955572420391</v>
       </c>
       <c r="X40" t="n">
-        <v>800.0821004655893</v>
+        <v>800.0821004655888</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.4656154436262</v>
+        <v>660.4656154436261</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7388,25 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C41" t="n">
-        <v>1578.735003217362</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D41" t="n">
         <v>1301.645398732179</v>
       </c>
       <c r="E41" t="n">
-        <v>997.0332402555018</v>
+        <v>997.0332402555023</v>
       </c>
       <c r="F41" t="n">
-        <v>667.2234295874612</v>
+        <v>667.2234295874619</v>
       </c>
       <c r="G41" t="n">
-        <v>331.6647365253295</v>
+        <v>331.6647365253302</v>
       </c>
       <c r="H41" t="n">
-        <v>98.23282116053863</v>
+        <v>98.23282116053868</v>
       </c>
       <c r="I41" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J41" t="n">
         <v>291.3284374829998</v>
@@ -7415,46 +7415,46 @@
         <v>738.8042303303007</v>
       </c>
       <c r="L41" t="n">
-        <v>1106.134597299248</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M41" t="n">
-        <v>1798.601710891308</v>
+        <v>2021.383325305869</v>
       </c>
       <c r="N41" t="n">
-        <v>2487.641668787553</v>
+        <v>2277.44982803425</v>
       </c>
       <c r="O41" t="n">
-        <v>3093.094924325497</v>
+        <v>2882.903083572192</v>
       </c>
       <c r="P41" t="n">
-        <v>3572.160887363466</v>
+        <v>3361.969046610162</v>
       </c>
       <c r="Q41" t="n">
-        <v>3644.505873898003</v>
+        <v>3644.505873898004</v>
       </c>
       <c r="R41" t="n">
-        <v>3666.238411140017</v>
+        <v>3666.238411140018</v>
       </c>
       <c r="S41" t="n">
-        <v>3599.243331747286</v>
+        <v>3599.243331747287</v>
       </c>
       <c r="T41" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909963</v>
       </c>
       <c r="U41" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V41" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W41" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X41" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y41" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I42" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J42" t="n">
         <v>209.4728804765248</v>
@@ -7497,16 +7497,16 @@
         <v>1113.346544400324</v>
       </c>
       <c r="M42" t="n">
-        <v>1515.837668781012</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N42" t="n">
-        <v>2237.187455211017</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O42" t="n">
-        <v>2440.74220833968</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P42" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q42" t="n">
         <v>2631.145881054214</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.9932447349531</v>
+        <v>559.9932447349535</v>
       </c>
       <c r="C43" t="n">
-        <v>472.2331559286134</v>
+        <v>472.2331559286136</v>
       </c>
       <c r="D43" t="n">
-        <v>403.2926106378447</v>
+        <v>403.292610637845</v>
       </c>
       <c r="E43" t="n">
-        <v>336.5556111770188</v>
+        <v>336.5556111770189</v>
       </c>
       <c r="F43" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G43" t="n">
-        <v>183.5693481338849</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H43" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I43" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J43" t="n">
-        <v>146.3385235905134</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K43" t="n">
-        <v>344.977425661835</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L43" t="n">
-        <v>632.4436645649289</v>
+        <v>632.4436645649292</v>
       </c>
       <c r="M43" t="n">
-        <v>941.6007284770172</v>
+        <v>941.6007284770176</v>
       </c>
       <c r="N43" t="n">
-        <v>1250.733120208856</v>
+        <v>1250.733120208857</v>
       </c>
       <c r="O43" t="n">
         <v>1526.324138488816</v>
@@ -7588,7 +7588,7 @@
         <v>1750.101957367262</v>
       </c>
       <c r="Q43" t="n">
-        <v>1846.076031837954</v>
+        <v>1846.076031837955</v>
       </c>
       <c r="R43" t="n">
         <v>1803.893761548168</v>
@@ -7597,22 +7597,22 @@
         <v>1680.389026481853</v>
       </c>
       <c r="T43" t="n">
-        <v>1536.612472748891</v>
+        <v>1536.612472748892</v>
       </c>
       <c r="U43" t="n">
-        <v>1328.645027241752</v>
+        <v>1328.645027241753</v>
       </c>
       <c r="V43" t="n">
-        <v>1155.136633157432</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W43" t="n">
-        <v>946.8955572420389</v>
+        <v>946.8955572420393</v>
       </c>
       <c r="X43" t="n">
-        <v>800.0821004655886</v>
+        <v>800.0821004655891</v>
       </c>
       <c r="Y43" t="n">
-        <v>660.4656154436257</v>
+        <v>660.4656154436261</v>
       </c>
     </row>
     <row r="44">
@@ -7631,43 +7631,43 @@
         <v>1301.645398732179</v>
       </c>
       <c r="E44" t="n">
-        <v>997.0332402555016</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F44" t="n">
-        <v>667.2234295874612</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G44" t="n">
-        <v>331.6647365253297</v>
+        <v>331.6647365253298</v>
       </c>
       <c r="H44" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053869</v>
       </c>
       <c r="I44" t="n">
         <v>73.32476822280036</v>
       </c>
       <c r="J44" t="n">
-        <v>123.9227884626468</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K44" t="n">
-        <v>571.3985813099478</v>
+        <v>738.8042303303007</v>
       </c>
       <c r="L44" t="n">
-        <v>1178.808498395526</v>
+        <v>932.7295450109327</v>
       </c>
       <c r="M44" t="n">
-        <v>1871.275611987586</v>
+        <v>1625.196658602993</v>
       </c>
       <c r="N44" t="n">
-        <v>2560.315569883831</v>
+        <v>2299.182365276263</v>
       </c>
       <c r="O44" t="n">
-        <v>3165.768825421775</v>
+        <v>2904.635620814207</v>
       </c>
       <c r="P44" t="n">
-        <v>3361.969046610162</v>
+        <v>3383.701583852176</v>
       </c>
       <c r="Q44" t="n">
-        <v>3644.505873898004</v>
+        <v>3666.238411140018</v>
       </c>
       <c r="R44" t="n">
         <v>3666.238411140018</v>
@@ -7676,7 +7676,7 @@
         <v>3599.243331747287</v>
       </c>
       <c r="T44" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U44" t="n">
         <v>3294.67742834307</v>
@@ -7691,7 +7691,7 @@
         <v>2480.908409833006</v>
       </c>
       <c r="Y44" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>73.32476822280036</v>
       </c>
       <c r="J45" t="n">
-        <v>84.64275548952004</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K45" t="n">
-        <v>182.1418231557574</v>
+        <v>568.7925327852149</v>
       </c>
       <c r="L45" t="n">
-        <v>359.563892920442</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M45" t="n">
-        <v>1047.011961162199</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N45" t="n">
-        <v>1768.361747592205</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.464067386143</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P45" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q45" t="n">
         <v>2631.145881054214</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.9932447349536</v>
+        <v>559.9932447349535</v>
       </c>
       <c r="C46" t="n">
-        <v>472.2331559286138</v>
+        <v>472.2331559286137</v>
       </c>
       <c r="D46" t="n">
-        <v>403.2926106378452</v>
+        <v>403.292610637845</v>
       </c>
       <c r="E46" t="n">
-        <v>336.5556111770192</v>
+        <v>336.5556111770189</v>
       </c>
       <c r="F46" t="n">
-        <v>270.8417578006759</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G46" t="n">
-        <v>183.5693481338853</v>
+        <v>183.5693481338851</v>
       </c>
       <c r="H46" t="n">
         <v>111.8985965143195</v>
@@ -7804,16 +7804,16 @@
         <v>73.32476822280036</v>
       </c>
       <c r="J46" t="n">
-        <v>146.338523590514</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K46" t="n">
-        <v>344.9774256618356</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L46" t="n">
-        <v>632.4436645649295</v>
+        <v>632.4436645649291</v>
       </c>
       <c r="M46" t="n">
-        <v>941.6007284770179</v>
+        <v>941.6007284770176</v>
       </c>
       <c r="N46" t="n">
         <v>1250.733120208857</v>
@@ -7843,10 +7843,10 @@
         <v>1155.136633157433</v>
       </c>
       <c r="W46" t="n">
-        <v>946.8955572420397</v>
+        <v>946.8955572420394</v>
       </c>
       <c r="X46" t="n">
-        <v>800.0821004655894</v>
+        <v>800.0821004655892</v>
       </c>
       <c r="Y46" t="n">
         <v>660.4656154436261</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>91.4384548137381</v>
+        <v>89.09175041405601</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8775,16 +8775,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>43.92324116750228</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>403.2116123608384</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>128.6720848884036</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>114.0019372031873</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>323.3587988941764</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>75.69396863846924</v>
       </c>
       <c r="M15" t="n">
         <v>423.8184615533934</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3717057375264</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>78.9977077783058</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>402.5571885181425</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>393.8523528674105</v>
       </c>
       <c r="O17" t="n">
-        <v>16.66411675500186</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>125.3660379646615</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>423.8184615533934</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>359.4847150512054</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>402.5571885181425</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>393.8523528674104</v>
@@ -9416,10 +9416,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>268.7558846302387</v>
+        <v>303.9492850893861</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>43.76436205276624</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>125.3660379646615</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>423.8184615533934</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>403.2116123608384</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>255.4103619301466</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>177.5266792821762</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>419.7264636342423</v>
+        <v>134.8880061729607</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>449.6925723202253</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>105.6501109151332</v>
       </c>
       <c r="O24" t="n">
-        <v>279.6130726570146</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,10 +9878,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>400.1885522251267</v>
       </c>
       <c r="M26" t="n">
-        <v>432.0408711675088</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,16 +9960,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>105.6501109151336</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>70.861540551926</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,22 +10118,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>432.0408711675092</v>
       </c>
       <c r="N29" t="n">
-        <v>326.2781036663746</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>128.6720848884036</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>83.00504847409584</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,19 +10349,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>286.9870403843066</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>363.3275189374215</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>209.0960838145047</v>
+        <v>128.6720848884036</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,16 +10592,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>316.4926549270062</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>432.040871167509</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>83.00504847409582</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>128.6720848884036</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>400.1885522251271</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>194.8423283345801</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>128.6720848884036</v>
       </c>
       <c r="N39" t="n">
-        <v>191.5070775141903</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,13 +11063,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>175.1566184730459</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>432.0408711675092</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>177.8697669206364</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>128.6720848884036</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>422.1406100453428</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>36.07573660624789</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276624</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>155.0985521871459</v>
+        <v>128.6720848884036</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>224.498676091053</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0107215343887</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>46.07290049595595</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.1997591548757</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.76113535209355</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>146.8599114426837</v>
       </c>
       <c r="U11" t="n">
-        <v>186.8646588149558</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>263.4900882335161</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>284.9787984807942</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>115.5698099453185</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>102.984650862009</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>87.05620704710243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.8626105306214</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>51.094155644007</v>
+        <v>3.88650034919445</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>187.8754730872092</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>161.4474851524184</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>240.5196320276041</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>290.4208713840641</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>348.3052690752429</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.1997591548757</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>186.8646588149558</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>263.490088233516</v>
+        <v>263.4900882335161</v>
       </c>
       <c r="W14" t="n">
-        <v>284.9787984807941</v>
+        <v>284.9787984807942</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>122.3001339965054</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>102.984650862009</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.1717924099503</v>
+        <v>82.17179240995034</v>
       </c>
       <c r="F16" t="n">
-        <v>81.15887778631237</v>
+        <v>81.15887778631242</v>
       </c>
       <c r="G16" t="n">
-        <v>102.5018485138552</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.903064115862946</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.29025295233652</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.86261053062134</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>117.5731252506682</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>100.4122490639218</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>100.4122490639214</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>100.4122490639214</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>100.4122490639219</v>
       </c>
     </row>
     <row r="21">
@@ -26323,16 +26323,16 @@
         <v>124430.7807500048</v>
       </c>
       <c r="F2" t="n">
-        <v>124430.7807500048</v>
+        <v>124430.7807500047</v>
       </c>
       <c r="G2" t="n">
-        <v>142283.5670967891</v>
+        <v>142283.5670967892</v>
       </c>
       <c r="H2" t="n">
         <v>142283.5670967892</v>
       </c>
       <c r="I2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="J2" t="n">
         <v>143682.3097262498</v>
@@ -26344,10 +26344,10 @@
         <v>143682.3097262498</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262499</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262498</v>
@@ -26375,34 +26375,34 @@
         <v>792873.2514315095</v>
       </c>
       <c r="F3" t="n">
-        <v>4.532061448048048e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>64291.46654428108</v>
+        <v>64291.46654428114</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6880.469409226706</v>
+        <v>6880.469409226646</v>
       </c>
       <c r="J3" t="n">
-        <v>62318.39567828069</v>
+        <v>62318.39567828074</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>64291.46654428112</v>
+        <v>64291.46654428115</v>
       </c>
       <c r="M3" t="n">
-        <v>162606.9521943978</v>
+        <v>162606.9521943979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,16 +26445,16 @@
         <v>177002.7601002274</v>
       </c>
       <c r="L4" t="n">
+        <v>177002.7601002274</v>
+      </c>
+      <c r="M4" t="n">
         <v>177002.7601002275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>177002.7601002274</v>
       </c>
       <c r="N4" t="n">
         <v>177002.7601002274</v>
       </c>
       <c r="O4" t="n">
-        <v>177002.7601002274</v>
+        <v>177002.7601002275</v>
       </c>
       <c r="P4" t="n">
         <v>177002.7601002274</v>
@@ -26497,19 +26497,19 @@
         <v>77315.81130726746</v>
       </c>
       <c r="L5" t="n">
+        <v>77315.81130726748</v>
+      </c>
+      <c r="M5" t="n">
+        <v>77315.81130726748</v>
+      </c>
+      <c r="N5" t="n">
+        <v>77315.81130726748</v>
+      </c>
+      <c r="O5" t="n">
+        <v>77315.81130726748</v>
+      </c>
+      <c r="P5" t="n">
         <v>77315.81130726746</v>
-      </c>
-      <c r="M5" t="n">
-        <v>77315.81130726746</v>
-      </c>
-      <c r="N5" t="n">
-        <v>77315.81130726746</v>
-      </c>
-      <c r="O5" t="n">
-        <v>77315.81130726746</v>
-      </c>
-      <c r="P5" t="n">
-        <v>77315.81130726748</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-310402.0096140496</v>
+        <v>-310406.4231919177</v>
       </c>
       <c r="C6" t="n">
-        <v>-310402.0096140496</v>
+        <v>-310406.4231919177</v>
       </c>
       <c r="D6" t="n">
-        <v>-310402.0096140495</v>
+        <v>-310406.4231919177</v>
       </c>
       <c r="E6" t="n">
-        <v>-859827.0750652273</v>
+        <v>-860102.0969077451</v>
       </c>
       <c r="F6" t="n">
-        <v>-66953.82363371787</v>
+        <v>-67228.84547623564</v>
       </c>
       <c r="G6" t="n">
-        <v>-178219.3735888808</v>
+        <v>-178239.3556264444</v>
       </c>
       <c r="H6" t="n">
-        <v>-113927.9070445996</v>
+        <v>-113947.8890821633</v>
       </c>
       <c r="I6" t="n">
-        <v>-123849.2979524992</v>
+        <v>-123849.297952499</v>
       </c>
       <c r="J6" t="n">
-        <v>-172954.6573595258</v>
+        <v>-172954.6573595259</v>
       </c>
       <c r="K6" t="n">
         <v>-110636.2616812451</v>
       </c>
       <c r="L6" t="n">
-        <v>-174927.7282255262</v>
+        <v>-174927.7282255263</v>
       </c>
       <c r="M6" t="n">
         <v>-273243.2138756429</v>
       </c>
       <c r="N6" t="n">
-        <v>-110636.2616812451</v>
+        <v>-110636.2616812452</v>
       </c>
       <c r="O6" t="n">
         <v>-110636.2616812451</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="F2" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="G2" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="H2" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="I2" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="J2" t="n">
         <v>80.36433318035144</v>
@@ -26713,19 +26713,19 @@
         <v>80.36433318035139</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M2" t="n">
+        <v>80.36433318035141</v>
+      </c>
+      <c r="N2" t="n">
+        <v>80.36433318035141</v>
+      </c>
+      <c r="O2" t="n">
+        <v>80.36433318035141</v>
+      </c>
+      <c r="P2" t="n">
         <v>80.36433318035139</v>
-      </c>
-      <c r="N2" t="n">
-        <v>80.36433318035139</v>
-      </c>
-      <c r="O2" t="n">
-        <v>80.36433318035144</v>
-      </c>
-      <c r="P2" t="n">
-        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="3">
@@ -26808,25 +26808,25 @@
         <v>652.505385926381</v>
       </c>
       <c r="I4" t="n">
-        <v>678.3794966932129</v>
+        <v>678.3794966932127</v>
       </c>
       <c r="J4" t="n">
         <v>916.5596027850044</v>
       </c>
       <c r="K4" t="n">
-        <v>916.5596027850044</v>
+        <v>916.5596027850045</v>
       </c>
       <c r="L4" t="n">
-        <v>916.5596027850042</v>
+        <v>916.5596027850045</v>
       </c>
       <c r="M4" t="n">
-        <v>916.5596027850042</v>
+        <v>916.5596027850045</v>
       </c>
       <c r="N4" t="n">
-        <v>916.5596027850042</v>
+        <v>916.5596027850045</v>
       </c>
       <c r="O4" t="n">
-        <v>916.5596027850042</v>
+        <v>916.5596027850045</v>
       </c>
       <c r="P4" t="n">
         <v>916.5596027850045</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="F2" t="n">
-        <v>5.66507681006006e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.8741107668319</v>
+        <v>25.87411076683168</v>
       </c>
       <c r="J4" t="n">
-        <v>238.1801060917915</v>
+        <v>238.1801060917917</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="K2" t="n">
-        <v>5.66507681006006e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="C11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="D11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="E11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="F11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="G11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="H11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="I11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="T11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="U11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="V11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="W11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="X11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="C13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="D13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="E13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="F13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="G13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="H13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="I13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="J13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="K13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="L13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="M13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="N13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="O13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="P13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="R13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="S13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="T13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="U13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="V13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="W13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="X13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.2621702366188</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="C14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="D14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="E14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="F14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="G14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="H14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="I14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="T14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="U14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="V14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="W14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="X14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="Y14" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="C16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="D16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="E16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="F16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="G16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="H16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="I16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="J16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="K16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="L16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="M16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="N16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="O16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="P16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="R16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="S16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="T16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="U16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="V16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="W16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="X16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.26217023661887</v>
+        <v>64.26217023661883</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="C17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="D17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="E17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="F17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="G17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="H17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="I17" t="n">
         <v>105.0233055887123</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="T17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="U17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="V17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="W17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="X17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="Y17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
     </row>
     <row r="18">
@@ -28719,25 +28719,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="C19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="D19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="E19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="F19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="G19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="H19" t="n">
-        <v>77.89978780722795</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="I19" t="n">
         <v>118.5524231889554</v>
@@ -28770,25 +28770,25 @@
         <v>122.1247807672402</v>
       </c>
       <c r="S19" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>77.89978780722777</v>
       </c>
       <c r="V19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="W19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="X19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>144.6265034169703</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="C20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="D20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="E20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="F20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="G20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="H20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="I20" t="n">
         <v>105.0233055887123</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="T20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="U20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="V20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="W20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="X20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="Y20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="D22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="E22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="F22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="G22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="H22" t="n">
-        <v>84.51285293938395</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="I22" t="n">
-        <v>118.5524231889554</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.1247807672402</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>144.6265034169702</v>
+        <v>35.9370500616387</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="U22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="V22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="W22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="X22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="C23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="D23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="E23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="F23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="G23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="H23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="I23" t="n">
         <v>105.0233055887123</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="T23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="U23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="V23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="W23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="X23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="Y23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
     </row>
     <row r="24">
@@ -29193,25 +29193,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="C25" t="n">
-        <v>84.51285293938379</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="F25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="G25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="H25" t="n">
-        <v>144.6265034169702</v>
+        <v>62.01113028965354</v>
       </c>
       <c r="I25" t="n">
         <v>118.5524231889554</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.1247807672402</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="T25" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="V25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="W25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="X25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="N34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="P34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="R34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035171</v>
       </c>
       <c r="N37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="P37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="R37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="N40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="P40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="R40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J43" t="n">
-        <v>80.36433318035098</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="N43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="P43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035164</v>
       </c>
       <c r="R43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="K46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="L46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="M46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="N46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="O46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035174</v>
       </c>
       <c r="P46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="R46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="S46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
   </sheetData>
@@ -35410,13 +35410,13 @@
         <v>220.205726525454</v>
       </c>
       <c r="K11" t="n">
-        <v>127.8503377796443</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L11" t="n">
         <v>613.545370793513</v>
       </c>
       <c r="M11" t="n">
-        <v>341.3866522219765</v>
+        <v>339.0399478222944</v>
       </c>
       <c r="N11" t="n">
         <v>258.6530330589705</v>
@@ -35425,7 +35425,7 @@
         <v>230.768763725076</v>
       </c>
       <c r="P11" t="n">
-        <v>483.9050131696664</v>
+        <v>162.1063049981838</v>
       </c>
       <c r="Q11" t="n">
         <v>285.3907346341837</v>
@@ -35495,16 +35495,16 @@
         <v>550.054557186979</v>
       </c>
       <c r="M12" t="n">
-        <v>272.6101655404898</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N12" t="n">
-        <v>652.505385926381</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O12" t="n">
-        <v>205.6108617461248</v>
+        <v>334.2829466345285</v>
       </c>
       <c r="P12" t="n">
-        <v>145.4924937843537</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q12" t="n">
         <v>256.9117360873878</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.64910510446282</v>
+        <v>57.64910510446281</v>
       </c>
       <c r="K13" t="n">
         <v>184.543192683865</v>
@@ -35586,7 +35586,7 @@
         <v>209.9360379435865</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.84134662262332</v>
+        <v>80.84134662262331</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.1091113533802</v>
+        <v>220.205726525454</v>
       </c>
       <c r="K14" t="n">
-        <v>241.8522749828315</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L14" t="n">
         <v>613.545370793513</v>
       </c>
       <c r="M14" t="n">
-        <v>249.9481974082384</v>
+        <v>573.3069963024149</v>
       </c>
       <c r="N14" t="n">
         <v>258.6530330589705</v>
       </c>
       <c r="O14" t="n">
-        <v>611.5689449878213</v>
+        <v>230.768763725076</v>
       </c>
       <c r="P14" t="n">
-        <v>483.9050131696664</v>
+        <v>162.1063049981838</v>
       </c>
       <c r="Q14" t="n">
         <v>73.07574397427905</v>
@@ -35729,7 +35729,7 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L15" t="n">
-        <v>179.2142118835198</v>
+        <v>254.908180521989</v>
       </c>
       <c r="M15" t="n">
         <v>652.505385926381</v>
@@ -35738,13 +35738,13 @@
         <v>249.2937735655425</v>
       </c>
       <c r="O15" t="n">
-        <v>599.4731810228543</v>
+        <v>205.6108617461248</v>
       </c>
       <c r="P15" t="n">
-        <v>355.86419952188</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.64910510446288</v>
+        <v>57.64910510446283</v>
       </c>
       <c r="K16" t="n">
         <v>184.543192683865</v>
@@ -35811,19 +35811,19 @@
         <v>274.2677753422208</v>
       </c>
       <c r="M16" t="n">
-        <v>296.1776995937305</v>
+        <v>296.1776995937304</v>
       </c>
       <c r="N16" t="n">
-        <v>296.1527781995394</v>
+        <v>296.1527781995393</v>
       </c>
       <c r="O16" t="n">
-        <v>262.2726029956203</v>
+        <v>262.2726029956202</v>
       </c>
       <c r="P16" t="n">
         <v>209.9360379435865</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.84134662262338</v>
+        <v>80.84134662262333</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>220.205726525454</v>
+        <v>51.1091113533802</v>
       </c>
       <c r="K17" t="n">
-        <v>451.995750350809</v>
+        <v>206.8480455579501</v>
       </c>
       <c r="L17" t="n">
-        <v>195.8841562430626</v>
+        <v>613.545370793513</v>
       </c>
       <c r="M17" t="n">
+        <v>249.9481974082384</v>
+      </c>
+      <c r="N17" t="n">
         <v>652.505385926381</v>
       </c>
-      <c r="N17" t="n">
-        <v>258.6530330589705</v>
-      </c>
       <c r="O17" t="n">
-        <v>247.4328804800778</v>
+        <v>230.768763725076</v>
       </c>
       <c r="P17" t="n">
         <v>483.9050131696664</v>
@@ -35905,7 +35905,7 @@
         <v>73.07574397427905</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>21.9520578202162</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>11.43231037042392</v>
       </c>
       <c r="K18" t="n">
-        <v>362.9491437461517</v>
+        <v>223.8499446982346</v>
       </c>
       <c r="L18" t="n">
         <v>550.054557186979</v>
       </c>
       <c r="M18" t="n">
-        <v>652.505385926381</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N18" t="n">
-        <v>608.7784886167479</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O18" t="n">
-        <v>205.6108617461248</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P18" t="n">
-        <v>145.4924937843537</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>220.205726525454</v>
+        <v>51.1091113533802</v>
       </c>
       <c r="K20" t="n">
-        <v>127.8503377796443</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L20" t="n">
         <v>195.8841562430626</v>
       </c>
       <c r="M20" t="n">
-        <v>652.505385926381</v>
+        <v>249.9481974082384</v>
       </c>
       <c r="N20" t="n">
         <v>652.505385926381</v>
@@ -36136,10 +36136,10 @@
         <v>230.768763725076</v>
       </c>
       <c r="P20" t="n">
-        <v>430.8621896284224</v>
+        <v>466.0555900875698</v>
       </c>
       <c r="Q20" t="n">
-        <v>73.07574397427905</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.5233457108328</v>
+        <v>11.43231037042392</v>
       </c>
       <c r="K21" t="n">
-        <v>98.48390673357304</v>
+        <v>223.8499446982346</v>
       </c>
       <c r="L21" t="n">
-        <v>179.2142118835198</v>
+        <v>550.054557186979</v>
       </c>
       <c r="M21" t="n">
-        <v>652.505385926381</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N21" t="n">
-        <v>652.505385926381</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O21" t="n">
-        <v>461.0212236762714</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P21" t="n">
-        <v>145.4924937843537</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q21" t="n">
         <v>256.9117360873878</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.1091113533802</v>
+        <v>220.205726525454</v>
       </c>
       <c r="K23" t="n">
-        <v>305.3770170618205</v>
+        <v>127.8503377796443</v>
       </c>
       <c r="L23" t="n">
         <v>613.545370793513</v>
@@ -36367,19 +36367,19 @@
         <v>249.9481974082384</v>
       </c>
       <c r="N23" t="n">
-        <v>678.3794966932129</v>
+        <v>393.5410392319312</v>
       </c>
       <c r="O23" t="n">
-        <v>230.768763725076</v>
+        <v>611.5689449878213</v>
       </c>
       <c r="P23" t="n">
-        <v>483.9050131696664</v>
+        <v>162.1063049981838</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.07574397427905</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>21.9520578202162</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K24" t="n">
-        <v>98.48390673357304</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L24" t="n">
-        <v>550.054557186979</v>
+        <v>179.2142118835198</v>
       </c>
       <c r="M24" t="n">
-        <v>678.3794966932129</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N24" t="n">
-        <v>249.2937735655425</v>
+        <v>354.9438844806757</v>
       </c>
       <c r="O24" t="n">
-        <v>485.2239344031395</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P24" t="n">
         <v>463.9552624242908</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>451.995750350809</v>
       </c>
       <c r="L26" t="n">
-        <v>613.545370793513</v>
+        <v>596.0727084681893</v>
       </c>
       <c r="M26" t="n">
-        <v>681.9890685757472</v>
+        <v>699.4617309010708</v>
       </c>
       <c r="N26" t="n">
         <v>258.6530330589704</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>11.43231037042389</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K27" t="n">
         <v>362.9491437461516</v>
@@ -36680,16 +36680,16 @@
         <v>179.2142118835197</v>
       </c>
       <c r="M27" t="n">
-        <v>228.6869243729875</v>
+        <v>334.3370352881211</v>
       </c>
       <c r="N27" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O27" t="n">
         <v>599.4731810228543</v>
       </c>
       <c r="P27" t="n">
-        <v>216.3540343362796</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q27" t="n">
         <v>256.9117360873878</v>
@@ -36838,22 +36838,22 @@
         <v>613.545370793513</v>
       </c>
       <c r="M29" t="n">
-        <v>699.461730901071</v>
+        <v>681.9890685757476</v>
       </c>
       <c r="N29" t="n">
-        <v>584.9311367253451</v>
+        <v>258.6530330589705</v>
       </c>
       <c r="O29" t="n">
         <v>611.5689449878213</v>
       </c>
       <c r="P29" t="n">
-        <v>162.1063049981838</v>
+        <v>483.9050131696664</v>
       </c>
       <c r="Q29" t="n">
         <v>285.3907346341837</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>21.9520578202162</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L30" t="n">
-        <v>179.2142118835198</v>
+        <v>550.054557186979</v>
       </c>
       <c r="M30" t="n">
-        <v>694.3919881229874</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N30" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O30" t="n">
-        <v>205.6108617461248</v>
+        <v>334.2829466345285</v>
       </c>
       <c r="P30" t="n">
-        <v>145.4924937843537</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q30" t="n">
-        <v>129.8394968256345</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>220.205726525454</v>
       </c>
       <c r="K32" t="n">
-        <v>414.8373781639509</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L32" t="n">
-        <v>195.8841562430626</v>
+        <v>613.545370793513</v>
       </c>
       <c r="M32" t="n">
         <v>699.461730901071</v>
       </c>
       <c r="N32" t="n">
-        <v>695.9999574709548</v>
+        <v>258.6530330589705</v>
       </c>
       <c r="O32" t="n">
-        <v>611.5689449878213</v>
+        <v>594.0962826624974</v>
       </c>
       <c r="P32" t="n">
         <v>483.9050131696664</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K33" t="n">
         <v>362.9491437461517</v>
       </c>
       <c r="L33" t="n">
-        <v>179.2142118835198</v>
+        <v>550.054557186979</v>
       </c>
       <c r="M33" t="n">
-        <v>694.3919881229874</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N33" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O33" t="n">
-        <v>414.7069455606295</v>
+        <v>334.2829466345285</v>
       </c>
       <c r="P33" t="n">
-        <v>145.4924937843537</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819541</v>
       </c>
       <c r="K34" t="n">
         <v>200.6453556275976</v>
@@ -37239,13 +37239,13 @@
         <v>312.2549411432719</v>
       </c>
       <c r="O34" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393528</v>
       </c>
       <c r="P34" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.94350956635594</v>
+        <v>96.94350956635591</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,16 +37312,16 @@
         <v>613.545370793513</v>
       </c>
       <c r="M35" t="n">
-        <v>566.4408523352447</v>
+        <v>249.9481974082384</v>
       </c>
       <c r="N35" t="n">
-        <v>695.9999574709548</v>
+        <v>690.6939042264795</v>
       </c>
       <c r="O35" t="n">
         <v>611.5689449878213</v>
       </c>
       <c r="P35" t="n">
-        <v>162.1063049981838</v>
+        <v>483.9050131696664</v>
       </c>
       <c r="Q35" t="n">
         <v>285.3907346341837</v>
@@ -37388,22 +37388,22 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L36" t="n">
-        <v>262.2192603576156</v>
+        <v>550.054557186979</v>
       </c>
       <c r="M36" t="n">
-        <v>694.3919881229874</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N36" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O36" t="n">
-        <v>205.6108617461248</v>
+        <v>334.2829466345285</v>
       </c>
       <c r="P36" t="n">
-        <v>145.4924937843537</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.7512680481954</v>
+        <v>73.75126804819541</v>
       </c>
       <c r="K37" t="n">
         <v>200.6453556275976</v>
@@ -37470,7 +37470,7 @@
         <v>290.3699382859534</v>
       </c>
       <c r="M37" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374633</v>
       </c>
       <c r="N37" t="n">
         <v>312.2549411432719</v>
@@ -37482,7 +37482,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.9435095663559</v>
+        <v>96.94350956635591</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>451.995750350809</v>
       </c>
       <c r="L38" t="n">
-        <v>613.545370793513</v>
+        <v>596.0727084681897</v>
       </c>
       <c r="M38" t="n">
         <v>699.461730901071</v>
@@ -37561,7 +37561,7 @@
         <v>483.9050131696664</v>
       </c>
       <c r="Q38" t="n">
-        <v>267.9180723088591</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R38" t="n">
         <v>21.9520578202162</v>
@@ -37628,19 +37628,19 @@
         <v>550.054557186979</v>
       </c>
       <c r="M39" t="n">
-        <v>694.3919881229874</v>
+        <v>357.3590092613912</v>
       </c>
       <c r="N39" t="n">
-        <v>440.8008510797329</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O39" t="n">
         <v>205.6108617461248</v>
       </c>
       <c r="P39" t="n">
-        <v>145.4924937843537</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.7512680481954</v>
+        <v>73.75126804819541</v>
       </c>
       <c r="K40" t="n">
         <v>200.6453556275976</v>
@@ -37719,7 +37719,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.9435095663559</v>
+        <v>96.94350956635591</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,13 +37783,13 @@
         <v>451.995750350809</v>
       </c>
       <c r="L41" t="n">
-        <v>371.0407747161084</v>
+        <v>613.545370793513</v>
       </c>
       <c r="M41" t="n">
-        <v>699.461730901071</v>
+        <v>681.9890685757476</v>
       </c>
       <c r="N41" t="n">
-        <v>695.9999574709548</v>
+        <v>258.6530330589705</v>
       </c>
       <c r="O41" t="n">
         <v>611.5689449878213</v>
@@ -37798,7 +37798,7 @@
         <v>483.9050131696664</v>
       </c>
       <c r="Q41" t="n">
-        <v>73.07574397427905</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R41" t="n">
         <v>21.9520578202162</v>
@@ -37865,19 +37865,19 @@
         <v>550.054557186979</v>
       </c>
       <c r="M42" t="n">
-        <v>406.556691293624</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N42" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O42" t="n">
-        <v>205.6108617461248</v>
+        <v>334.2829466345285</v>
       </c>
       <c r="P42" t="n">
-        <v>145.4924937843537</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.75126804819499</v>
+        <v>73.75126804819541</v>
       </c>
       <c r="K43" t="n">
         <v>200.6453556275976</v>
@@ -37950,13 +37950,13 @@
         <v>312.2549411432719</v>
       </c>
       <c r="O43" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393528</v>
       </c>
       <c r="P43" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.94350956635594</v>
+        <v>96.94350956635614</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>51.1091113533802</v>
+        <v>220.205726525454</v>
       </c>
       <c r="K44" t="n">
         <v>451.995750350809</v>
       </c>
       <c r="L44" t="n">
-        <v>613.545370793513</v>
+        <v>195.8841562430626</v>
       </c>
       <c r="M44" t="n">
         <v>699.461730901071</v>
       </c>
       <c r="N44" t="n">
-        <v>695.9999574709548</v>
+        <v>680.7936431043133</v>
       </c>
       <c r="O44" t="n">
         <v>611.5689449878213</v>
       </c>
       <c r="P44" t="n">
-        <v>198.1820416044316</v>
+        <v>483.9050131696664</v>
       </c>
       <c r="Q44" t="n">
         <v>285.3907346341837</v>
       </c>
       <c r="R44" t="n">
-        <v>21.9520578202162</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K45" t="n">
-        <v>98.48390673357304</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L45" t="n">
-        <v>179.2142118835198</v>
+        <v>550.054557186979</v>
       </c>
       <c r="M45" t="n">
-        <v>694.3919881229874</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N45" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O45" t="n">
-        <v>360.7094139332708</v>
+        <v>334.2829466345285</v>
       </c>
       <c r="P45" t="n">
         <v>463.9552624242908</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.75126804819543</v>
+        <v>73.7512680481954</v>
       </c>
       <c r="K46" t="n">
         <v>200.6453556275976</v>
@@ -38187,13 +38187,13 @@
         <v>312.2549411432719</v>
       </c>
       <c r="O46" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393532</v>
       </c>
       <c r="P46" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.94350956635593</v>
+        <v>96.9435095663559</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
